--- a/Excel Raw Data/NC dropout rates 2012-2017.xlsx
+++ b/Excel Raw Data/NC dropout rates 2012-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyrodriguez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyrodriguez/Desktop/GitHub/216finalproject/Excel Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -377,19 +377,19 @@
     <t>County</t>
   </si>
   <si>
-    <t>dropout_rate_2012-13</t>
-  </si>
-  <si>
-    <t>dropout_rate_2013-14</t>
-  </si>
-  <si>
-    <t>dropout_rate_2014-15</t>
-  </si>
-  <si>
-    <t>dropout_rate_2015-16</t>
-  </si>
-  <si>
-    <t>dropout_rate_2016-17</t>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -495,11 +495,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -808,15 +817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
@@ -3146,9 +3155,12 @@
         <v>1.1095700416088765</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A116">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"na"</formula>
     </cfRule>
   </conditionalFormatting>
